--- a/game/MMO/ExcelMMO/functionunlock.xlsx
+++ b/game/MMO/ExcelMMO/functionunlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_2.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068AA2EF-7F46-41B7-A19F-634F8C9D831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1731162D-98C4-448C-8529-9B0E2EAD871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="571">
   <si>
     <t>表名</t>
   </si>
@@ -2127,6 +2127,10 @@
   </si>
   <si>
     <t>特典活动-绝版称号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rukou_jidian</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3361,10 +3365,10 @@
   <dimension ref="A1:T257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A256" sqref="A256"/>
+      <selection pane="bottomRight" activeCell="L258" sqref="L258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11256,7 +11260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="4">
         <v>2320</v>
       </c>
@@ -11265,6 +11269,9 @@
       </c>
       <c r="C257" s="5">
         <v>1</v>
+      </c>
+      <c r="L257" s="5" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
